--- a/doc/Aufnahmen/Aufnahmebogen_Krater_2.xlsx
+++ b/doc/Aufnahmen/Aufnahmebogen_Krater_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\data\Aufnahmen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\repo\doc\Aufnahmen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A5B05-4E91-4F43-AF48-565264534087}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199550CC-164F-400B-885E-3C65A9A9EBAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9360" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pürckhauer" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>Profil ID</t>
   </si>
@@ -61,16 +61,6 @@
   <si>
     <t>Anzahl 
 Schläge</t>
-  </si>
-  <si>
-    <t>Plot ID: 2
-N: 50.844096
-E: 8.676311
-Datum: 18.09.19
-Aufgenommen durch:
-Schneider, Simon
-Bemerkungen: 
-Hangposition, Buchen,  viele Steine an der tiefsten Stelle</t>
   </si>
   <si>
     <t>Allgemeine Beschreibung des Kraters:
@@ -122,9 +112,6 @@
     <t>Cv</t>
   </si>
   <si>
-    <t>grusig, schluffig</t>
-  </si>
-  <si>
     <t>3.3</t>
   </si>
   <si>
@@ -137,10 +124,25 @@
     <t>bei 35 cm</t>
   </si>
   <si>
-    <t>auf Stein getroffen</t>
+    <t>Plot ID: 19
+N: 5632525
+E: 477208
+Datum: 18.09.19
+Aufgenommen durch:
+Schneider, Simon
+Bemerkungen: 
+Hangposition, Buchen,  viele Steine an der tiefsten Stelle</t>
   </si>
   <si>
-    <t>x</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>grusig,
+ schluffig</t>
+  </si>
+  <si>
+    <t>auf Stein 
+getroffen</t>
   </si>
 </sst>
 </file>
@@ -465,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -580,6 +582,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -609,7 +617,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>363591</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>30596</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -948,8 +956,8 @@
   </sheetPr>
   <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +981,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -981,7 +989,7 @@
       <c r="E1" s="29"/>
       <c r="F1" s="30"/>
       <c r="G1" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="46"/>
       <c r="I1" s="46"/>
@@ -1672,7 +1680,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="10"/>
       <c r="F31" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1755,16 +1763,16 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2">
         <v>3.5</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
@@ -1784,16 +1792,16 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="C37" s="2">
         <v>1.5</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="41"/>
@@ -1813,16 +1821,16 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="41"/>
@@ -1842,16 +1850,16 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="C39" s="2">
         <v>40</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39" s="40"/>
       <c r="G39" s="41"/>
@@ -1871,16 +1879,16 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="40"/>
       <c r="G40" s="41"/>
@@ -1898,18 +1906,18 @@
       <c r="S40" s="41"/>
       <c r="T40" s="42"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="C41" s="2">
         <v>10</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>26</v>
+      <c r="D41" s="54" t="s">
+        <v>31</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="41"/>
@@ -1929,16 +1937,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2">
         <v>20</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F42" s="40"/>
       <c r="G42" s="41"/>
@@ -1958,14 +1966,16 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="C43" s="2">
         <v>30</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43" s="40"/>
       <c r="G43" s="41"/>
@@ -2670,7 +2680,7 @@
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>30</v>
       </c>
@@ -2692,8 +2702,8 @@
       <c r="I73" s="13">
         <v>35</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>31</v>
+      <c r="J73" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="K73" s="19">
         <v>30</v>
@@ -2728,7 +2738,7 @@
         <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="19">
@@ -2797,7 +2807,7 @@
         <v>34</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="19">
         <v>60</v>
